--- a/Thesis-Drivers.xlsx
+++ b/Thesis-Drivers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="0" windowWidth="24640" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="960" windowWidth="24640" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -109,13 +117,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +464,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -457,154 +473,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-2.5946760707867801E-4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.73114722821666E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>-1.6729341981666201E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2.5228257384566901E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-5.55303585329237E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-3.6572415576512402E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-4.1230866928732002E-4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-6.3484903622561496E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-6.5448387822570897E-3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-4.1950185752514697E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>-1.2312431114517299E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>8.2688280592019302E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-0.38362304032690803</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-0.36921657255895401</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>-0.71740205133317603</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-1.22434915627203E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1.1703647330485499E-4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>-5.0135879404817202E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>-5.6868146174243003E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>-0.336712944595081</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>-0.34388616691707502</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>-0.29293665196249302</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>-0.16395494711275799</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-0.50446118093427605</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>-9.2169442704626004E-4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>8.3390255412241199E-4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>-7.3294854014160904E-4</v>
       </c>
       <c r="E11" s="1">
@@ -612,16 +640,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>-2.0377144335492799E-4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>-5.3486939855151797E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>-2.9867214452676798E-3</v>
       </c>
       <c r="E12" s="1">
@@ -629,33 +657,33 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>-0.45722493724997698</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>-0.26668602149679799</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>-0.67843033554597798</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>-3.3917429474575899E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>-3.2581747184234899E-5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>7.0134773066110601E-4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>-2.9731208718242202E-4</v>
       </c>
       <c r="E14" s="1">
